--- a/data/vgp_database/Valles_Caldera_volcanics.xlsx
+++ b/data/vgp_database/Valles_Caldera_volcanics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E9F43-A620-F34B-B106-261D616D3ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A57A794-B85E-064D-8860-C830B4DB7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="1260" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,25 +341,16 @@
     <t>Del Medio II</t>
   </si>
   <si>
-    <t>Anorthoclase' unit</t>
-  </si>
-  <si>
     <t>Bandelier Tuff Upper member</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>S31: Upper member mean</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>Bandelier Tuff Lower member</t>
-  </si>
-  <si>
-    <t>S30: Lower member mean</t>
   </si>
   <si>
     <t>M2</t>
@@ -401,13 +392,22 @@
     <t>Felsic tuff</t>
   </si>
   <si>
-    <t>Ryholite</t>
+    <t>10.1130/MEM116-p211:https://ui.adsabs.harvard.edu/abs/2011AGUFM.V13C2606G/abstract</t>
   </si>
   <si>
-    <t>citation</t>
+    <t>Rhyolite</t>
   </si>
   <si>
-    <t>10.1130/MEM116-p211:https://ui.adsabs.harvard.edu/abs/2011AGUFM.V13C2606G/abstract</t>
+    <t>citations</t>
+  </si>
+  <si>
+    <t>S31 (Upper member mean)</t>
+  </si>
+  <si>
+    <t>S30 (Lower member mean)</t>
+  </si>
+  <si>
+    <t>Anorthoclase unit</t>
   </si>
 </sst>
 </file>
@@ -796,13 +796,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
@@ -1355,13 +1355,13 @@
         <v>27</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AA8" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AB8" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>54</v>
@@ -1403,7 +1403,7 @@
         <v>40</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AQ8" s="3"/>
     </row>
@@ -1468,13 +1468,13 @@
         <v>65</v>
       </c>
       <c r="Z9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB9" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>66</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ9" s="22"/>
     </row>
@@ -1579,13 +1579,13 @@
         <v>70</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>66</v>
@@ -1621,7 +1621,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ10" s="22"/>
     </row>
@@ -1688,13 +1688,13 @@
         <v>74</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC11" s="8" t="s">
         <v>66</v>
@@ -1728,7 +1728,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ11" s="22"/>
     </row>
@@ -1795,13 +1795,13 @@
         <v>74</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC12" s="8" t="s">
         <v>66</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="AO12" s="4"/>
       <c r="AP12" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ12" s="22"/>
     </row>
@@ -1906,13 +1906,13 @@
         <v>74</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC13" s="8" t="s">
         <v>66</v>
@@ -1946,7 +1946,7 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ13" s="22"/>
     </row>
@@ -2013,13 +2013,13 @@
         <v>74</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC14" s="8" t="s">
         <v>66</v>
@@ -2053,7 +2053,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ14" s="22"/>
     </row>
@@ -2120,13 +2120,13 @@
         <v>74</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>66</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="AO15" s="14"/>
       <c r="AP15" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ15" s="14"/>
     </row>
@@ -2231,13 +2231,13 @@
         <v>74</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC16" s="8" t="s">
         <v>66</v>
@@ -2274,7 +2274,7 @@
         <v>85</v>
       </c>
       <c r="AP16" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ16" s="22"/>
     </row>
@@ -2344,13 +2344,13 @@
         <v>74</v>
       </c>
       <c r="Z17" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA17" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC17" s="8" t="s">
         <v>66</v>
@@ -2387,7 +2387,7 @@
         <v>91</v>
       </c>
       <c r="AP17" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ17" s="22"/>
     </row>
@@ -2456,13 +2456,13 @@
         <v>74</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC18" s="8" t="s">
         <v>66</v>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="AN18" s="4"/>
       <c r="AP18" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ18" s="22"/>
     </row>
@@ -2562,13 +2562,13 @@
         <v>74</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA19" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC19" s="8" t="s">
         <v>66</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="AN19" s="4"/>
       <c r="AP19" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ19" s="22"/>
     </row>
@@ -2670,13 +2670,13 @@
         <v>74</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>66</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="AN20" s="4"/>
       <c r="AP20" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ20" s="22"/>
     </row>
@@ -2778,13 +2778,13 @@
         <v>74</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC21" s="8" t="s">
         <v>66</v>
@@ -2817,16 +2817,16 @@
       </c>
       <c r="AN21" s="4"/>
       <c r="AP21" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ21" s="22"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="C22" s="17">
         <v>35.83</v>
@@ -2884,13 +2884,13 @@
         <v>70</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>66</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>46</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="AN22" s="4"/>
       <c r="AP22" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ22" s="22"/>
     </row>
@@ -2936,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="17">
         <v>35.770000000000003</v>
@@ -2994,13 +2994,13 @@
         <v>70</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC23" s="8" t="s">
         <v>66</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>46</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="AN23" s="4"/>
       <c r="AP23" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ23" s="22"/>
     </row>
@@ -3046,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="17">
         <v>35.770000000000003</v>
@@ -3104,13 +3104,13 @@
         <v>70</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC24" s="8" t="s">
         <v>66</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>46</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="AN24" s="4"/>
       <c r="AP24" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ24" s="22"/>
     </row>
@@ -3156,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="17">
         <v>35.770000000000003</v>
@@ -3214,13 +3214,13 @@
         <v>70</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC25" s="8" t="s">
         <v>66</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>46</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="AN25" s="4"/>
       <c r="AP25" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ25" s="22"/>
     </row>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="17">
         <v>35.770000000000003</v>
@@ -3324,13 +3324,13 @@
         <v>70</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>66</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL26" s="4" t="s">
         <v>46</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="AN26" s="4"/>
       <c r="AP26" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ26" s="22"/>
     </row>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="17">
         <v>35.83</v>
@@ -3434,13 +3434,13 @@
         <v>70</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA27" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB27" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC27" s="8" t="s">
         <v>66</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL27" s="4" t="s">
         <v>46</v>
@@ -3477,16 +3477,16 @@
       </c>
       <c r="AN27" s="4"/>
       <c r="AP27" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ27" s="22"/>
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="17">
         <v>35.770000000000003</v>
@@ -3544,13 +3544,13 @@
         <v>70</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC28" s="8" t="s">
         <v>66</v>
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ28" s="8">
         <v>1</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AN28" s="4"/>
       <c r="AP28" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ28" s="22"/>
     </row>
@@ -3594,7 +3594,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="17">
         <v>35.840000000000003</v>
@@ -3652,13 +3652,13 @@
         <v>70</v>
       </c>
       <c r="Z29" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC29" s="8" t="s">
         <v>66</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL29" s="4" t="s">
         <v>46</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="AN29" s="4"/>
       <c r="AP29" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ29" s="22"/>
     </row>
@@ -3704,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="17">
         <v>35.840000000000003</v>
@@ -3762,13 +3762,13 @@
         <v>70</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC30" s="8" t="s">
         <v>66</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL30" s="4" t="s">
         <v>46</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="AN30" s="4"/>
       <c r="AP30" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ30" s="27"/>
     </row>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="17">
         <v>35.93</v>
@@ -3872,13 +3872,13 @@
         <v>70</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>66</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL31" s="4" t="s">
         <v>46</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="AN31" s="4"/>
       <c r="AP31" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ31" s="27"/>
     </row>
@@ -3924,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="17">
         <v>35.93</v>
@@ -3982,13 +3982,13 @@
         <v>70</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB32" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC32" s="8" t="s">
         <v>66</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL32" s="4" t="s">
         <v>46</v>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="AN32" s="4"/>
       <c r="AP32" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ32" s="27"/>
     </row>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="17">
         <v>35.93</v>
@@ -4092,13 +4092,13 @@
         <v>70</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA33" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB33" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC33" s="8" t="s">
         <v>66</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL33" s="4" t="s">
         <v>46</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AN33" s="4"/>
       <c r="AP33" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ33" s="27"/>
     </row>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="17">
         <v>35.93</v>
@@ -4202,13 +4202,13 @@
         <v>70</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC34" s="8" t="s">
         <v>66</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL34" s="4" t="s">
         <v>46</v>
@@ -4245,16 +4245,16 @@
       </c>
       <c r="AN34" s="4"/>
       <c r="AP34" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ34" s="22"/>
     </row>
     <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="17">
         <v>35.93</v>
@@ -4312,13 +4312,13 @@
         <v>70</v>
       </c>
       <c r="Z35" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA35" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC35" s="8" t="s">
         <v>66</v>
@@ -4339,7 +4339,7 @@
         <v>2</v>
       </c>
       <c r="AI35" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AJ35" s="8">
         <v>1</v>
@@ -4353,16 +4353,16 @@
       </c>
       <c r="AN35" s="4"/>
       <c r="AP35" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ35" s="27"/>
     </row>
     <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" s="17">
         <v>35.85</v>
@@ -4417,16 +4417,16 @@
         <v>44</v>
       </c>
       <c r="Y36" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z36" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB36" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC36" s="8" t="s">
         <v>66</v>
@@ -4458,10 +4458,10 @@
         <v>47</v>
       </c>
       <c r="AN36" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AP36" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ36" s="14"/>
     </row>
